--- a/biology/Botanique/Agata_(pomme_de_terre)/Agata_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Agata_(pomme_de_terre)/Agata_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'agata,Agathe Michel, est une variété cultivée de pomme de terre, aux tubercules à chair ferme de couleur jaune, bonne cuite au four, bouillie,  sautée à la poêle et en salade.
-Cette variété est inscrite au catalogue officiel des variétés en Autriche, en France et aux Pays-Bas depuis le 20 décembre 1989. Elle a été ultérieurement inscrite au catalogue de divers pays européens (Bulgarie, Hongrie, Roumanie, Slovaquie et Suisse)[1].
-Elle est surtout cultivée en France, en Italie et en Espagne[2]. 
-C'est l'une des principales variétés cultivées en Andalousie pour la production de la « Patata Temprana de Andalucía » (pomme de terre primeur d'Andalousie)[3].
+Cette variété est inscrite au catalogue officiel des variétés en Autriche, en France et aux Pays-Bas depuis le 20 décembre 1989. Elle a été ultérieurement inscrite au catalogue de divers pays européens (Bulgarie, Hongrie, Roumanie, Slovaquie et Suisse).
+Elle est surtout cultivée en France, en Italie et en Espagne. 
+C'est l'une des principales variétés cultivées en Andalousie pour la production de la « Patata Temprana de Andalucía » (pomme de terre primeur d'Andalousie).
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Origine génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est issue du croisement entre les variétés 'BM 52-72' et 'Sirco' réalisé  en 1989  par la société suédoise Svalöf Weibull AB, filiale du groupe semencier Lantmännen SW Seed dans sa station de sélection d'Emmeloord aux Pays-Bas, en collaboration avec la société néerlandaise Agrico.
 </t>
@@ -546,16 +560,18 @@
           <t>Principales caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la variété la plus vendue en France, mais les puristes lui reprochent d'être plus jolie que goûteuse[4]. Elle est plus facile que les autres à cultiver, à conserver et à éplucher, mais manque de goût.
-Tubercule : ovales à oblongs ; peau lisse, jaune pâle ; yeux superficiels ; chair jaune[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la variété la plus vendue en France, mais les puristes lui reprochent d'être plus jolie que goûteuse. Elle est plus facile que les autres à cultiver, à conserver et à éplucher, mais manque de goût.
+Tubercule : ovales à oblongs ; peau lisse, jaune pâle ; yeux superficiels ; chair jaune.
 Germe : cylindriques larges; bleu-violet, faiblement pigmentés.
 Plante : grandeur moyenne, étalés ; tiges minces, non pigmentée.
 Tige : fortement ramifiées.
 Feuille : vert moyen, semi-ouvertes ; nervures médianes et pétioles non pigmentés.
 Fleur : peu nombreuses, corolle blanche de grandeur moyenne ; anthères orange.
-Cette variété de pomme de terre est idéale pour une cuisson en gratin, au four, dans des plats mijotés et en robe des champs[6].
+Cette variété de pomme de terre est idéale pour une cuisson en gratin, au four, dans des plats mijotés et en robe des champs.
 </t>
         </is>
       </c>
